--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S11/S11_storagemod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S11/S11_storagemod.xlsx
@@ -14,168 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Frequency (Hz)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>0.024940163890335557</t>
-  </si>
-  <si>
-    <t>0.04013600822081579</t>
-  </si>
-  <si>
-    <t>0.06253435262378722</t>
-  </si>
-  <si>
-    <t>0.15165362820028092</t>
-  </si>
-  <si>
-    <t>0.2399613176361315</t>
-  </si>
-  <si>
-    <t>0.3677625332347375</t>
-  </si>
-  <si>
-    <t>0.5913113480521176</t>
-  </si>
-  <si>
-    <t>0.9201624544444135</t>
-  </si>
-  <si>
-    <t>1.4558307487451942</t>
-  </si>
-  <si>
-    <t>2.3356539300281614</t>
-  </si>
-  <si>
-    <t>3.6757138144777506</t>
-  </si>
-  <si>
-    <t>5.575963314146106</t>
-  </si>
-  <si>
-    <t>9.109916588897338</t>
-  </si>
-  <si>
-    <t>14.5605004550799</t>
-  </si>
-  <si>
-    <t>22.18840657824066</t>
-  </si>
-  <si>
-    <t>33.390632029568714</t>
-  </si>
-  <si>
-    <t>51.75736250161715</t>
-  </si>
-  <si>
-    <t>73.85370115890919</t>
-  </si>
-  <si>
-    <t>105.80945755005335</t>
-  </si>
-  <si>
-    <t>149.13227503797572</t>
-  </si>
-  <si>
-    <t>213.28763727192302</t>
-  </si>
-  <si>
-    <t>321.4592210297766</t>
-  </si>
-  <si>
-    <t>445.6334103457609</t>
-  </si>
-  <si>
-    <t>542.3077115591442</t>
-  </si>
-  <si>
-    <t>0.09826790117192118</t>
-  </si>
-  <si>
-    <t>0.01633078051347518</t>
-  </si>
-  <si>
-    <t>14.06174074614845</t>
-  </si>
-  <si>
-    <t>27.4793592713171</t>
-  </si>
-  <si>
-    <t>57.82503151472574</t>
-  </si>
-  <si>
-    <t>197.23883683030124</t>
-  </si>
-  <si>
-    <t>329.8322247671463</t>
-  </si>
-  <si>
-    <t>664.9576282173442</t>
-  </si>
-  <si>
-    <t>1030.6400804938903</t>
-  </si>
-  <si>
-    <t>1571.9922329739393</t>
-  </si>
-  <si>
-    <t>2563.238486973327</t>
-  </si>
-  <si>
-    <t>4121.699104100183</t>
-  </si>
-  <si>
-    <t>5652.5795635810455</t>
-  </si>
-  <si>
-    <t>8972.186023710703</t>
-  </si>
-  <si>
-    <t>12777.16149358135</t>
-  </si>
-  <si>
-    <t>17306.753248771707</t>
-  </si>
-  <si>
-    <t>20309.803047688325</t>
-  </si>
-  <si>
-    <t>26444.902628088275</t>
-  </si>
-  <si>
-    <t>31061.333228928317</t>
-  </si>
-  <si>
-    <t>36332.4342191715</t>
-  </si>
-  <si>
-    <t>42000.59445050487</t>
-  </si>
-  <si>
-    <t>48025.002360568455</t>
-  </si>
-  <si>
-    <t>56500.39091799578</t>
-  </si>
-  <si>
-    <t>63765.7179810032</t>
-  </si>
-  <si>
-    <t>68317.16587307103</t>
-  </si>
-  <si>
-    <t>78234.80657390715</t>
-  </si>
-  <si>
-    <t>105.19086393080569</t>
-  </si>
-  <si>
-    <t>7.196856730011499</t>
+    <t>Storage modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -548,211 +392,211 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
+      <c r="A2">
+        <v>0.02494016389033556</v>
+      </c>
+      <c r="B2">
+        <v>14.06174074614845</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
+      <c r="A3">
+        <v>0.04013600822081579</v>
+      </c>
+      <c r="B3">
+        <v>27.4793592713171</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
+      <c r="A4">
+        <v>0.06253435262378722</v>
+      </c>
+      <c r="B4">
+        <v>57.82503151472574</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
+      <c r="A5">
+        <v>0.1516536282002809</v>
+      </c>
+      <c r="B5">
+        <v>197.2388368303012</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
+      <c r="A6">
+        <v>0.2399613176361315</v>
+      </c>
+      <c r="B6">
+        <v>329.8322247671463</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
+      <c r="A7">
+        <v>0.3677625332347375</v>
+      </c>
+      <c r="B7">
+        <v>664.9576282173442</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
+      <c r="A8">
+        <v>0.5913113480521176</v>
+      </c>
+      <c r="B8">
+        <v>1030.64008049389</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
+      <c r="A9">
+        <v>0.9201624544444135</v>
+      </c>
+      <c r="B9">
+        <v>1571.992232973939</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
+      <c r="A10">
+        <v>1.455830748745194</v>
+      </c>
+      <c r="B10">
+        <v>2563.238486973327</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
+      <c r="A11">
+        <v>2.335653930028161</v>
+      </c>
+      <c r="B11">
+        <v>4121.699104100183</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
+      <c r="A12">
+        <v>3.675713814477751</v>
+      </c>
+      <c r="B12">
+        <v>5652.579563581045</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
+      <c r="A13">
+        <v>5.575963314146106</v>
+      </c>
+      <c r="B13">
+        <v>8972.186023710703</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
+      <c r="A14">
+        <v>9.109916588897338</v>
+      </c>
+      <c r="B14">
+        <v>12777.16149358135</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
+      <c r="A15">
+        <v>14.5605004550799</v>
+      </c>
+      <c r="B15">
+        <v>17306.75324877171</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
+      <c r="A16">
+        <v>22.18840657824066</v>
+      </c>
+      <c r="B16">
+        <v>20309.80304768833</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
+      <c r="A17">
+        <v>33.39063202956871</v>
+      </c>
+      <c r="B17">
+        <v>26444.90262808828</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>44</v>
+      <c r="A18">
+        <v>51.75736250161715</v>
+      </c>
+      <c r="B18">
+        <v>31061.33322892832</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>45</v>
+      <c r="A19">
+        <v>73.85370115890919</v>
+      </c>
+      <c r="B19">
+        <v>36332.4342191715</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>46</v>
+      <c r="A20">
+        <v>105.8094575500534</v>
+      </c>
+      <c r="B20">
+        <v>42000.59445050487</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>47</v>
+      <c r="A21">
+        <v>149.1322750379757</v>
+      </c>
+      <c r="B21">
+        <v>48025.00236056845</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>48</v>
+      <c r="A22">
+        <v>213.287637271923</v>
+      </c>
+      <c r="B22">
+        <v>56500.39091799578</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>49</v>
+      <c r="A23">
+        <v>321.4592210297766</v>
+      </c>
+      <c r="B23">
+        <v>63765.7179810032</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
+      <c r="A24">
+        <v>445.6334103457609</v>
+      </c>
+      <c r="B24">
+        <v>68317.16587307103</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
+      <c r="A25">
+        <v>542.3077115591442</v>
+      </c>
+      <c r="B25">
+        <v>78234.80657390715</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>52</v>
+      <c r="A26">
+        <v>0.09826790117192118</v>
+      </c>
+      <c r="B26">
+        <v>105.1908639308057</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
+      <c r="A27">
+        <v>0.01633078051347518</v>
+      </c>
+      <c r="B27">
+        <v>7.196856730011499</v>
       </c>
     </row>
   </sheetData>
